--- a/natmiOut/YoungD2/LR-pairs_lrc2p/H2-K1-Aplp2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/H2-K1-Aplp2.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>111.158179325238</v>
+        <v>160.5563596666667</v>
       </c>
       <c r="H2">
-        <v>111.158179325238</v>
+        <v>481.669079</v>
       </c>
       <c r="I2">
-        <v>0.08029656941788589</v>
+        <v>0.1075643273826705</v>
       </c>
       <c r="J2">
-        <v>0.08029656941788589</v>
+        <v>0.1075643273826705</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>106.451472632882</v>
+        <v>127.9386926666667</v>
       </c>
       <c r="N2">
-        <v>106.451472632882</v>
+        <v>383.816078</v>
       </c>
       <c r="O2">
-        <v>0.3117152820727166</v>
+        <v>0.3469505389988016</v>
       </c>
       <c r="P2">
-        <v>0.3117152820727166</v>
+        <v>0.3469505389988015</v>
       </c>
       <c r="Q2">
-        <v>11832.95188436156</v>
+        <v>20541.37075507246</v>
       </c>
       <c r="R2">
-        <v>11832.95188436156</v>
+        <v>184872.3367956522</v>
       </c>
       <c r="S2">
-        <v>0.02502966778556777</v>
+        <v>0.03731950136246109</v>
       </c>
       <c r="T2">
-        <v>0.02502966778556777</v>
+        <v>0.03731950136246107</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>111.158179325238</v>
+        <v>160.5563596666667</v>
       </c>
       <c r="H3">
-        <v>111.158179325238</v>
+        <v>481.669079</v>
       </c>
       <c r="I3">
-        <v>0.08029656941788589</v>
+        <v>0.1075643273826705</v>
       </c>
       <c r="J3">
-        <v>0.08029656941788589</v>
+        <v>0.1075643273826705</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>37.902203136864</v>
+        <v>37.93280166666667</v>
       </c>
       <c r="N3">
-        <v>37.902203136864</v>
+        <v>113.798405</v>
       </c>
       <c r="O3">
-        <v>0.110986683882995</v>
+        <v>0.1028680668034806</v>
       </c>
       <c r="P3">
-        <v>0.110986683882995</v>
+        <v>0.1028680668034806</v>
       </c>
       <c r="Q3">
-        <v>4213.139893109127</v>
+        <v>6090.352547557667</v>
       </c>
       <c r="R3">
-        <v>4213.139893109127</v>
+        <v>54813.172928019</v>
       </c>
       <c r="S3">
-        <v>0.008911849966871867</v>
+        <v>0.01106493441487201</v>
       </c>
       <c r="T3">
-        <v>0.008911849966871867</v>
+        <v>0.011064934414872</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>111.158179325238</v>
+        <v>160.5563596666667</v>
       </c>
       <c r="H4">
-        <v>111.158179325238</v>
+        <v>481.669079</v>
       </c>
       <c r="I4">
-        <v>0.08029656941788589</v>
+        <v>0.1075643273826705</v>
       </c>
       <c r="J4">
-        <v>0.08029656941788589</v>
+        <v>0.1075643273826705</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>53.4246348455395</v>
+        <v>55.25172166666667</v>
       </c>
       <c r="N4">
-        <v>53.4246348455395</v>
+        <v>165.755165</v>
       </c>
       <c r="O4">
-        <v>0.1564400633323429</v>
+        <v>0.149834379367988</v>
       </c>
       <c r="P4">
-        <v>0.1564400633323429</v>
+        <v>0.149834379367988</v>
       </c>
       <c r="Q4">
-        <v>5938.585140545838</v>
+        <v>8871.015296115895</v>
       </c>
       <c r="R4">
-        <v>5938.585140545838</v>
+        <v>79839.13766504303</v>
       </c>
       <c r="S4">
-        <v>0.01256160040510394</v>
+        <v>0.01611683423551752</v>
       </c>
       <c r="T4">
-        <v>0.01256160040510394</v>
+        <v>0.01611683423551751</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>111.158179325238</v>
+        <v>160.5563596666667</v>
       </c>
       <c r="H5">
-        <v>111.158179325238</v>
+        <v>481.669079</v>
       </c>
       <c r="I5">
-        <v>0.08029656941788589</v>
+        <v>0.1075643273826705</v>
       </c>
       <c r="J5">
-        <v>0.08029656941788589</v>
+        <v>0.1075643273826705</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>69.7244122616562</v>
+        <v>70.50497433333334</v>
       </c>
       <c r="N5">
-        <v>69.7244122616562</v>
+        <v>211.514923</v>
       </c>
       <c r="O5">
-        <v>0.2041696962751367</v>
+        <v>0.1911989120506307</v>
       </c>
       <c r="P5">
-        <v>0.2041696962751367</v>
+        <v>0.1911989120506307</v>
       </c>
       <c r="Q5">
-        <v>7750.438721528002</v>
+        <v>11320.02201735177</v>
       </c>
       <c r="R5">
-        <v>7750.438721528002</v>
+        <v>101880.1981561659</v>
       </c>
       <c r="S5">
-        <v>0.01639412618998519</v>
+        <v>0.02056618237102446</v>
       </c>
       <c r="T5">
-        <v>0.01639412618998519</v>
+        <v>0.02056618237102446</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>111.158179325238</v>
+        <v>160.5563596666667</v>
       </c>
       <c r="H6">
-        <v>111.158179325238</v>
+        <v>481.669079</v>
       </c>
       <c r="I6">
-        <v>0.08029656941788589</v>
+        <v>0.1075643273826705</v>
       </c>
       <c r="J6">
-        <v>0.08029656941788589</v>
+        <v>0.1075643273826705</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>44.5518968542285</v>
+        <v>44.93685299999999</v>
       </c>
       <c r="N6">
-        <v>44.5518968542285</v>
+        <v>134.810559</v>
       </c>
       <c r="O6">
-        <v>0.1304585718854647</v>
+        <v>0.1218620031539683</v>
       </c>
       <c r="P6">
-        <v>0.1304585718854647</v>
+        <v>0.1218620031539683</v>
       </c>
       <c r="Q6">
-        <v>4952.307739801839</v>
+        <v>7214.897532556129</v>
       </c>
       <c r="R6">
-        <v>4952.307739801839</v>
+        <v>64934.07779300516</v>
       </c>
       <c r="S6">
-        <v>0.01047537577355947</v>
+        <v>0.01310800440276147</v>
       </c>
       <c r="T6">
-        <v>0.01047537577355947</v>
+        <v>0.01310800440276147</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>111.158179325238</v>
+        <v>160.5563596666667</v>
       </c>
       <c r="H7">
-        <v>111.158179325238</v>
+        <v>481.669079</v>
       </c>
       <c r="I7">
-        <v>0.08029656941788589</v>
+        <v>0.1075643273826705</v>
       </c>
       <c r="J7">
-        <v>0.08029656941788589</v>
+        <v>0.1075643273826705</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>29.4476381146581</v>
+        <v>32.18692066666667</v>
       </c>
       <c r="N7">
-        <v>29.4476381146581</v>
+        <v>96.56076200000001</v>
       </c>
       <c r="O7">
-        <v>0.08622970255134382</v>
+        <v>0.08728609962513087</v>
       </c>
       <c r="P7">
-        <v>0.08622970255134382</v>
+        <v>0.08728609962513086</v>
       </c>
       <c r="Q7">
-        <v>3273.345838253878</v>
+        <v>5167.814811119802</v>
       </c>
       <c r="R7">
-        <v>3273.345838253878</v>
+        <v>46510.33330007821</v>
       </c>
       <c r="S7">
-        <v>0.006923949296797631</v>
+        <v>0.009388870596033971</v>
       </c>
       <c r="T7">
-        <v>0.006923949296797631</v>
+        <v>0.009388870596033968</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>42.6959401150428</v>
+        <v>42.79179366666667</v>
       </c>
       <c r="H8">
-        <v>42.6959401150428</v>
+        <v>128.375381</v>
       </c>
       <c r="I8">
-        <v>0.03084197258465751</v>
+        <v>0.02866825401877014</v>
       </c>
       <c r="J8">
-        <v>0.03084197258465751</v>
+        <v>0.02866825401877013</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>106.451472632882</v>
+        <v>127.9386926666667</v>
       </c>
       <c r="N8">
-        <v>106.451472632882</v>
+        <v>383.816078</v>
       </c>
       <c r="O8">
-        <v>0.3117152820727166</v>
+        <v>0.3469505389988016</v>
       </c>
       <c r="P8">
-        <v>0.3117152820727166</v>
+        <v>0.3469505389988015</v>
       </c>
       <c r="Q8">
-        <v>4545.045700691648</v>
+        <v>5474.726138575081</v>
       </c>
       <c r="R8">
-        <v>4545.045700691648</v>
+        <v>49272.53524717572</v>
       </c>
       <c r="S8">
-        <v>0.009613914183905508</v>
+        <v>0.009946466183966858</v>
       </c>
       <c r="T8">
-        <v>0.009613914183905508</v>
+        <v>0.009946466183966855</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>42.6959401150428</v>
+        <v>42.79179366666667</v>
       </c>
       <c r="H9">
-        <v>42.6959401150428</v>
+        <v>128.375381</v>
       </c>
       <c r="I9">
-        <v>0.03084197258465751</v>
+        <v>0.02866825401877014</v>
       </c>
       <c r="J9">
-        <v>0.03084197258465751</v>
+        <v>0.02866825401877013</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>37.902203136864</v>
+        <v>37.93280166666667</v>
       </c>
       <c r="N9">
-        <v>37.902203136864</v>
+        <v>113.798405</v>
       </c>
       <c r="O9">
-        <v>0.110986683882995</v>
+        <v>0.1028680668034806</v>
       </c>
       <c r="P9">
-        <v>0.110986683882995</v>
+        <v>0.1028680668034806</v>
       </c>
       <c r="Q9">
-        <v>1618.270195359733</v>
+        <v>1623.21262211859</v>
       </c>
       <c r="R9">
-        <v>1618.270195359733</v>
+        <v>14608.91359906731</v>
       </c>
       <c r="S9">
-        <v>0.003423048261581382</v>
+        <v>0.002949047869541997</v>
       </c>
       <c r="T9">
-        <v>0.003423048261581382</v>
+        <v>0.002949047869541996</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>42.6959401150428</v>
+        <v>42.79179366666667</v>
       </c>
       <c r="H10">
-        <v>42.6959401150428</v>
+        <v>128.375381</v>
       </c>
       <c r="I10">
-        <v>0.03084197258465751</v>
+        <v>0.02866825401877014</v>
       </c>
       <c r="J10">
-        <v>0.03084197258465751</v>
+        <v>0.02866825401877013</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>53.4246348455395</v>
+        <v>55.25172166666667</v>
       </c>
       <c r="N10">
-        <v>53.4246348455395</v>
+        <v>165.755165</v>
       </c>
       <c r="O10">
-        <v>0.1564400633323429</v>
+        <v>0.149834379367988</v>
       </c>
       <c r="P10">
-        <v>0.1564400633323429</v>
+        <v>0.149834379367988</v>
       </c>
       <c r="Q10">
-        <v>2281.015010033183</v>
+        <v>2364.320273288096</v>
       </c>
       <c r="R10">
-        <v>2281.015010033183</v>
+        <v>21278.88245959287</v>
       </c>
       <c r="S10">
-        <v>0.004824920144438205</v>
+        <v>0.004295490048466253</v>
       </c>
       <c r="T10">
-        <v>0.004824920144438205</v>
+        <v>0.004295490048466251</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>42.6959401150428</v>
+        <v>42.79179366666667</v>
       </c>
       <c r="H11">
-        <v>42.6959401150428</v>
+        <v>128.375381</v>
       </c>
       <c r="I11">
-        <v>0.03084197258465751</v>
+        <v>0.02866825401877014</v>
       </c>
       <c r="J11">
-        <v>0.03084197258465751</v>
+        <v>0.02866825401877013</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>69.7244122616562</v>
+        <v>70.50497433333334</v>
       </c>
       <c r="N11">
-        <v>69.7244122616562</v>
+        <v>211.514923</v>
       </c>
       <c r="O11">
-        <v>0.2041696962751367</v>
+        <v>0.1911989120506307</v>
       </c>
       <c r="P11">
-        <v>0.2041696962751367</v>
+        <v>0.1911989120506307</v>
       </c>
       <c r="Q11">
-        <v>2976.949330480229</v>
+        <v>3017.03431414563</v>
       </c>
       <c r="R11">
-        <v>2976.949330480229</v>
+        <v>27153.30882731067</v>
       </c>
       <c r="S11">
-        <v>0.006296996175135616</v>
+        <v>0.005481338978779971</v>
       </c>
       <c r="T11">
-        <v>0.006296996175135616</v>
+        <v>0.00548133897877997</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>42.6959401150428</v>
+        <v>42.79179366666667</v>
       </c>
       <c r="H12">
-        <v>42.6959401150428</v>
+        <v>128.375381</v>
       </c>
       <c r="I12">
-        <v>0.03084197258465751</v>
+        <v>0.02866825401877014</v>
       </c>
       <c r="J12">
-        <v>0.03084197258465751</v>
+        <v>0.02866825401877013</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>44.5518968542285</v>
+        <v>44.93685299999999</v>
       </c>
       <c r="N12">
-        <v>44.5518968542285</v>
+        <v>134.810559</v>
       </c>
       <c r="O12">
-        <v>0.1304585718854647</v>
+        <v>0.1218620031539683</v>
       </c>
       <c r="P12">
-        <v>0.1304585718854647</v>
+        <v>0.1218620031539683</v>
       </c>
       <c r="Q12">
-        <v>1902.185120099704</v>
+        <v>1922.928541605331</v>
       </c>
       <c r="R12">
-        <v>1902.185120099704</v>
+        <v>17306.35687444798</v>
       </c>
       <c r="S12">
-        <v>0.004023599697525073</v>
+        <v>0.00349357086165413</v>
       </c>
       <c r="T12">
-        <v>0.004023599697525073</v>
+        <v>0.003493570861654129</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>42.6959401150428</v>
+        <v>42.79179366666667</v>
       </c>
       <c r="H13">
-        <v>42.6959401150428</v>
+        <v>128.375381</v>
       </c>
       <c r="I13">
-        <v>0.03084197258465751</v>
+        <v>0.02866825401877014</v>
       </c>
       <c r="J13">
-        <v>0.03084197258465751</v>
+        <v>0.02866825401877013</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>29.4476381146581</v>
+        <v>32.18692066666667</v>
       </c>
       <c r="N13">
-        <v>29.4476381146581</v>
+        <v>96.56076200000001</v>
       </c>
       <c r="O13">
-        <v>0.08622970255134382</v>
+        <v>0.08728609962513087</v>
       </c>
       <c r="P13">
-        <v>0.08622970255134382</v>
+        <v>0.08728609962513086</v>
       </c>
       <c r="Q13">
-        <v>1257.294593472894</v>
+        <v>1377.33606793337</v>
       </c>
       <c r="R13">
-        <v>1257.294593472894</v>
+        <v>12396.02461140032</v>
       </c>
       <c r="S13">
-        <v>0.002659494122071718</v>
+        <v>0.002502340076360928</v>
       </c>
       <c r="T13">
-        <v>0.002659494122071718</v>
+        <v>0.002502340076360928</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>373.369277436438</v>
+        <v>422.9457193333333</v>
       </c>
       <c r="H14">
-        <v>373.369277436438</v>
+        <v>1268.837158</v>
       </c>
       <c r="I14">
-        <v>0.2697081967892033</v>
+        <v>0.2833514157515791</v>
       </c>
       <c r="J14">
-        <v>0.2697081967892033</v>
+        <v>0.2833514157515791</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>106.451472632882</v>
+        <v>127.9386926666667</v>
       </c>
       <c r="N14">
-        <v>106.451472632882</v>
+        <v>383.816078</v>
       </c>
       <c r="O14">
-        <v>0.3117152820727166</v>
+        <v>0.3469505389988016</v>
       </c>
       <c r="P14">
-        <v>0.3117152820727166</v>
+        <v>0.3469505389988015</v>
       </c>
       <c r="Q14">
-        <v>39745.7094189839</v>
+        <v>54111.12240046959</v>
       </c>
       <c r="R14">
-        <v>39745.7094189839</v>
+        <v>487000.1016042263</v>
       </c>
       <c r="S14">
-        <v>0.08407216663947029</v>
+        <v>0.09830892642108389</v>
       </c>
       <c r="T14">
-        <v>0.08407216663947029</v>
+        <v>0.09830892642108388</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>373.369277436438</v>
+        <v>422.9457193333333</v>
       </c>
       <c r="H15">
-        <v>373.369277436438</v>
+        <v>1268.837158</v>
       </c>
       <c r="I15">
-        <v>0.2697081967892033</v>
+        <v>0.2833514157515791</v>
       </c>
       <c r="J15">
-        <v>0.2697081967892033</v>
+        <v>0.2833514157515791</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>37.902203136864</v>
+        <v>37.93280166666667</v>
       </c>
       <c r="N15">
-        <v>37.902203136864</v>
+        <v>113.798405</v>
       </c>
       <c r="O15">
-        <v>0.110986683882995</v>
+        <v>0.1028680668034806</v>
       </c>
       <c r="P15">
-        <v>0.110986683882995</v>
+        <v>0.1028680668034806</v>
       </c>
       <c r="Q15">
-        <v>14151.51819846001</v>
+        <v>16043.516087237</v>
       </c>
       <c r="R15">
-        <v>14151.51819846001</v>
+        <v>144391.644785133</v>
       </c>
       <c r="S15">
-        <v>0.02993401837769592</v>
+        <v>0.02914781236439425</v>
       </c>
       <c r="T15">
-        <v>0.02993401837769592</v>
+        <v>0.02914781236439424</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>373.369277436438</v>
+        <v>422.9457193333333</v>
       </c>
       <c r="H16">
-        <v>373.369277436438</v>
+        <v>1268.837158</v>
       </c>
       <c r="I16">
-        <v>0.2697081967892033</v>
+        <v>0.2833514157515791</v>
       </c>
       <c r="J16">
-        <v>0.2697081967892033</v>
+        <v>0.2833514157515791</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>53.4246348455395</v>
+        <v>55.25172166666667</v>
       </c>
       <c r="N16">
-        <v>53.4246348455395</v>
+        <v>165.755165</v>
       </c>
       <c r="O16">
-        <v>0.1564400633323429</v>
+        <v>0.149834379367988</v>
       </c>
       <c r="P16">
-        <v>0.1564400633323429</v>
+        <v>0.149834379367988</v>
       </c>
       <c r="Q16">
-        <v>19947.11730958463</v>
+        <v>23368.47916471345</v>
       </c>
       <c r="R16">
-        <v>19947.11730958463</v>
+        <v>210316.3124824211</v>
       </c>
       <c r="S16">
-        <v>0.04219316738695499</v>
+        <v>0.04245578352217861</v>
       </c>
       <c r="T16">
-        <v>0.04219316738695499</v>
+        <v>0.0424557835221786</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>373.369277436438</v>
+        <v>422.9457193333333</v>
       </c>
       <c r="H17">
-        <v>373.369277436438</v>
+        <v>1268.837158</v>
       </c>
       <c r="I17">
-        <v>0.2697081967892033</v>
+        <v>0.2833514157515791</v>
       </c>
       <c r="J17">
-        <v>0.2697081967892033</v>
+        <v>0.2833514157515791</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>69.7244122616562</v>
+        <v>70.50497433333334</v>
       </c>
       <c r="N17">
-        <v>69.7244122616562</v>
+        <v>211.514923</v>
       </c>
       <c r="O17">
-        <v>0.2041696962751367</v>
+        <v>0.1911989120506307</v>
       </c>
       <c r="P17">
-        <v>0.2041696962751367</v>
+        <v>0.1911989120506307</v>
       </c>
       <c r="Q17">
-        <v>26032.95342581489</v>
+        <v>29819.77708598987</v>
       </c>
       <c r="R17">
-        <v>26032.95342581489</v>
+        <v>268377.9937739089</v>
       </c>
       <c r="S17">
-        <v>0.05506624062136644</v>
+        <v>0.05417648241970787</v>
       </c>
       <c r="T17">
-        <v>0.05506624062136644</v>
+        <v>0.05417648241970786</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>373.369277436438</v>
+        <v>422.9457193333333</v>
       </c>
       <c r="H18">
-        <v>373.369277436438</v>
+        <v>1268.837158</v>
       </c>
       <c r="I18">
-        <v>0.2697081967892033</v>
+        <v>0.2833514157515791</v>
       </c>
       <c r="J18">
-        <v>0.2697081967892033</v>
+        <v>0.2833514157515791</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>44.5518968542285</v>
+        <v>44.93685299999999</v>
       </c>
       <c r="N18">
-        <v>44.5518968542285</v>
+        <v>134.810559</v>
       </c>
       <c r="O18">
-        <v>0.1304585718854647</v>
+        <v>0.1218620031539683</v>
       </c>
       <c r="P18">
-        <v>0.1304585718854647</v>
+        <v>0.1218620031539683</v>
       </c>
       <c r="Q18">
-        <v>16634.30953688601</v>
+        <v>19005.84961666125</v>
       </c>
       <c r="R18">
-        <v>16634.30953688601</v>
+        <v>171052.6465499513</v>
       </c>
       <c r="S18">
-        <v>0.03518574617892334</v>
+        <v>0.03452977112000031</v>
       </c>
       <c r="T18">
-        <v>0.03518574617892334</v>
+        <v>0.0345297711200003</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>373.369277436438</v>
+        <v>422.9457193333333</v>
       </c>
       <c r="H19">
-        <v>373.369277436438</v>
+        <v>1268.837158</v>
       </c>
       <c r="I19">
-        <v>0.2697081967892033</v>
+        <v>0.2833514157515791</v>
       </c>
       <c r="J19">
-        <v>0.2697081967892033</v>
+        <v>0.2833514157515791</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>29.4476381146581</v>
+        <v>32.18692066666667</v>
       </c>
       <c r="N19">
-        <v>29.4476381146581</v>
+        <v>96.56076200000001</v>
       </c>
       <c r="O19">
-        <v>0.08622970255134382</v>
+        <v>0.08728609962513087</v>
       </c>
       <c r="P19">
-        <v>0.08622970255134382</v>
+        <v>0.08728609962513086</v>
       </c>
       <c r="Q19">
-        <v>10994.84336507961</v>
+        <v>13613.32031448827</v>
       </c>
       <c r="R19">
-        <v>10994.84336507961</v>
+        <v>122519.8828303944</v>
       </c>
       <c r="S19">
-        <v>0.02325685758479231</v>
+        <v>0.02473263990421421</v>
       </c>
       <c r="T19">
-        <v>0.02325685758479231</v>
+        <v>0.02473263990421421</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>563.879066299903</v>
+        <v>569.1005756666667</v>
       </c>
       <c r="H20">
-        <v>563.879066299903</v>
+        <v>1707.301727</v>
       </c>
       <c r="I20">
-        <v>0.4073254425836279</v>
+        <v>0.3812674923731751</v>
       </c>
       <c r="J20">
-        <v>0.4073254425836279</v>
+        <v>0.381267492373175</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>106.451472632882</v>
+        <v>127.9386926666667</v>
       </c>
       <c r="N20">
-        <v>106.451472632882</v>
+        <v>383.816078</v>
       </c>
       <c r="O20">
-        <v>0.3117152820727166</v>
+        <v>0.3469505389988016</v>
       </c>
       <c r="P20">
-        <v>0.3117152820727166</v>
+        <v>0.3469505389988015</v>
       </c>
       <c r="Q20">
-        <v>60025.75699447918</v>
+        <v>72809.98364664076</v>
       </c>
       <c r="R20">
-        <v>60025.75699447918</v>
+        <v>655289.8528197667</v>
       </c>
       <c r="S20">
-        <v>0.1269695652303497</v>
+        <v>0.1322809619815946</v>
       </c>
       <c r="T20">
-        <v>0.1269695652303497</v>
+        <v>0.1322809619815945</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>563.879066299903</v>
+        <v>569.1005756666667</v>
       </c>
       <c r="H21">
-        <v>563.879066299903</v>
+        <v>1707.301727</v>
       </c>
       <c r="I21">
-        <v>0.4073254425836279</v>
+        <v>0.3812674923731751</v>
       </c>
       <c r="J21">
-        <v>0.4073254425836279</v>
+        <v>0.381267492373175</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>37.902203136864</v>
+        <v>37.93280166666667</v>
       </c>
       <c r="N21">
-        <v>37.902203136864</v>
+        <v>113.798405</v>
       </c>
       <c r="O21">
-        <v>0.110986683882995</v>
+        <v>0.1028680668034806</v>
       </c>
       <c r="P21">
-        <v>0.110986683882995</v>
+        <v>0.1028680668034806</v>
       </c>
       <c r="Q21">
-        <v>21372.25891552413</v>
+        <v>21587.5792651495</v>
       </c>
       <c r="R21">
-        <v>21372.25891552413</v>
+        <v>194288.2133863455</v>
       </c>
       <c r="S21">
-        <v>0.04520770013353015</v>
+        <v>0.0392202498754393</v>
       </c>
       <c r="T21">
-        <v>0.04520770013353015</v>
+        <v>0.03922024987543928</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>563.879066299903</v>
+        <v>569.1005756666667</v>
       </c>
       <c r="H22">
-        <v>563.879066299903</v>
+        <v>1707.301727</v>
       </c>
       <c r="I22">
-        <v>0.4073254425836279</v>
+        <v>0.3812674923731751</v>
       </c>
       <c r="J22">
-        <v>0.4073254425836279</v>
+        <v>0.381267492373175</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>53.4246348455395</v>
+        <v>55.25172166666667</v>
       </c>
       <c r="N22">
-        <v>53.4246348455395</v>
+        <v>165.755165</v>
       </c>
       <c r="O22">
-        <v>0.1564400633323429</v>
+        <v>0.149834379367988</v>
       </c>
       <c r="P22">
-        <v>0.1564400633323429</v>
+        <v>0.149834379367988</v>
       </c>
       <c r="Q22">
-        <v>30125.03321411608</v>
+        <v>31443.78660707444</v>
       </c>
       <c r="R22">
-        <v>30125.03321411608</v>
+        <v>282994.07946367</v>
       </c>
       <c r="S22">
-        <v>0.06372201803465737</v>
+        <v>0.0571269780929238</v>
       </c>
       <c r="T22">
-        <v>0.06372201803465737</v>
+        <v>0.05712697809292377</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>563.879066299903</v>
+        <v>569.1005756666667</v>
       </c>
       <c r="H23">
-        <v>563.879066299903</v>
+        <v>1707.301727</v>
       </c>
       <c r="I23">
-        <v>0.4073254425836279</v>
+        <v>0.3812674923731751</v>
       </c>
       <c r="J23">
-        <v>0.4073254425836279</v>
+        <v>0.381267492373175</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>69.7244122616562</v>
+        <v>70.50497433333334</v>
       </c>
       <c r="N23">
-        <v>69.7244122616562</v>
+        <v>211.514923</v>
       </c>
       <c r="O23">
-        <v>0.2041696962751367</v>
+        <v>0.1911989120506307</v>
       </c>
       <c r="P23">
-        <v>0.2041696962751367</v>
+        <v>0.1911989120506307</v>
       </c>
       <c r="Q23">
-        <v>39316.13648441221</v>
+        <v>40124.42148046356</v>
       </c>
       <c r="R23">
-        <v>39316.13648441221</v>
+        <v>361119.793324172</v>
       </c>
       <c r="S23">
-        <v>0.08316351189743494</v>
+        <v>0.07289792974202321</v>
       </c>
       <c r="T23">
-        <v>0.08316351189743494</v>
+        <v>0.07289792974202318</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>563.879066299903</v>
+        <v>569.1005756666667</v>
       </c>
       <c r="H24">
-        <v>563.879066299903</v>
+        <v>1707.301727</v>
       </c>
       <c r="I24">
-        <v>0.4073254425836279</v>
+        <v>0.3812674923731751</v>
       </c>
       <c r="J24">
-        <v>0.4073254425836279</v>
+        <v>0.381267492373175</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>44.5518968542285</v>
+        <v>44.93685299999999</v>
       </c>
       <c r="N24">
-        <v>44.5518968542285</v>
+        <v>134.810559</v>
       </c>
       <c r="O24">
-        <v>0.1304585718854647</v>
+        <v>0.1218620031539683</v>
       </c>
       <c r="P24">
-        <v>0.1304585718854647</v>
+        <v>0.1218620031539683</v>
       </c>
       <c r="Q24">
-        <v>25121.88200005196</v>
+        <v>25573.58891094838</v>
       </c>
       <c r="R24">
-        <v>25121.88200005196</v>
+        <v>230162.3001985354</v>
       </c>
       <c r="S24">
-        <v>0.05313909553207494</v>
+        <v>0.04646202035808544</v>
       </c>
       <c r="T24">
-        <v>0.05313909553207494</v>
+        <v>0.04646202035808542</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>563.879066299903</v>
+        <v>569.1005756666667</v>
       </c>
       <c r="H25">
-        <v>563.879066299903</v>
+        <v>1707.301727</v>
       </c>
       <c r="I25">
-        <v>0.4073254425836279</v>
+        <v>0.3812674923731751</v>
       </c>
       <c r="J25">
-        <v>0.4073254425836279</v>
+        <v>0.381267492373175</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>29.4476381146581</v>
+        <v>32.18692066666667</v>
       </c>
       <c r="N25">
-        <v>29.4476381146581</v>
+        <v>96.56076200000001</v>
       </c>
       <c r="O25">
-        <v>0.08622970255134382</v>
+        <v>0.08728609962513087</v>
       </c>
       <c r="P25">
-        <v>0.08622970255134382</v>
+        <v>0.08728609962513086</v>
       </c>
       <c r="Q25">
-        <v>16604.90668483085</v>
+        <v>18317.59508033733</v>
       </c>
       <c r="R25">
-        <v>16604.90668483085</v>
+        <v>164858.355723036</v>
       </c>
       <c r="S25">
-        <v>0.03512355175558071</v>
+        <v>0.03327935232310879</v>
       </c>
       <c r="T25">
-        <v>0.03512355175558071</v>
+        <v>0.03327935232310877</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>275.265545124586</v>
+        <v>276.4506886666666</v>
       </c>
       <c r="H26">
-        <v>275.265545124586</v>
+        <v>829.3520659999999</v>
       </c>
       <c r="I26">
-        <v>0.1988416784677415</v>
+        <v>0.1852074401950932</v>
       </c>
       <c r="J26">
-        <v>0.1988416784677415</v>
+        <v>0.1852074401950932</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>106.451472632882</v>
+        <v>127.9386926666667</v>
       </c>
       <c r="N26">
-        <v>106.451472632882</v>
+        <v>383.816078</v>
       </c>
       <c r="O26">
-        <v>0.3117152820727166</v>
+        <v>0.3469505389988016</v>
       </c>
       <c r="P26">
-        <v>0.3117152820727166</v>
+        <v>0.3469505389988015</v>
       </c>
       <c r="Q26">
-        <v>29302.42264360522</v>
+        <v>35368.73969481301</v>
       </c>
       <c r="R26">
-        <v>29302.42264360522</v>
+        <v>318318.6572533171</v>
       </c>
       <c r="S26">
-        <v>0.06198198989138447</v>
+        <v>0.06425782120227591</v>
       </c>
       <c r="T26">
-        <v>0.06198198989138447</v>
+        <v>0.0642578212022759</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>275.265545124586</v>
+        <v>276.4506886666666</v>
       </c>
       <c r="H27">
-        <v>275.265545124586</v>
+        <v>829.3520659999999</v>
       </c>
       <c r="I27">
-        <v>0.1988416784677415</v>
+        <v>0.1852074401950932</v>
       </c>
       <c r="J27">
-        <v>0.1988416784677415</v>
+        <v>0.1852074401950932</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>37.902203136864</v>
+        <v>37.93280166666667</v>
       </c>
       <c r="N27">
-        <v>37.902203136864</v>
+        <v>113.798405</v>
       </c>
       <c r="O27">
-        <v>0.110986683882995</v>
+        <v>0.1028680668034806</v>
       </c>
       <c r="P27">
-        <v>0.110986683882995</v>
+        <v>0.1028680668034806</v>
       </c>
       <c r="Q27">
-        <v>10433.17060789166</v>
+        <v>10486.54914380608</v>
       </c>
       <c r="R27">
-        <v>10433.17060789166</v>
+        <v>94378.94229425472</v>
       </c>
       <c r="S27">
-        <v>0.02206877851086336</v>
+        <v>0.01905193133049049</v>
       </c>
       <c r="T27">
-        <v>0.02206877851086336</v>
+        <v>0.01905193133049048</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>275.265545124586</v>
+        <v>276.4506886666666</v>
       </c>
       <c r="H28">
-        <v>275.265545124586</v>
+        <v>829.3520659999999</v>
       </c>
       <c r="I28">
-        <v>0.1988416784677415</v>
+        <v>0.1852074401950932</v>
       </c>
       <c r="J28">
-        <v>0.1988416784677415</v>
+        <v>0.1852074401950932</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>53.4246348455395</v>
+        <v>55.25172166666667</v>
       </c>
       <c r="N28">
-        <v>53.4246348455395</v>
+        <v>165.755165</v>
       </c>
       <c r="O28">
-        <v>0.1564400633323429</v>
+        <v>0.149834379367988</v>
       </c>
       <c r="P28">
-        <v>0.1564400633323429</v>
+        <v>0.149834379367988</v>
       </c>
       <c r="Q28">
-        <v>14705.96123383938</v>
+        <v>15274.37650476898</v>
       </c>
       <c r="R28">
-        <v>14705.96123383938</v>
+        <v>137469.3885429209</v>
       </c>
       <c r="S28">
-        <v>0.03110680477260286</v>
+        <v>0.02775044185596556</v>
       </c>
       <c r="T28">
-        <v>0.03110680477260286</v>
+        <v>0.02775044185596556</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>275.265545124586</v>
+        <v>276.4506886666666</v>
       </c>
       <c r="H29">
-        <v>275.265545124586</v>
+        <v>829.3520659999999</v>
       </c>
       <c r="I29">
-        <v>0.1988416784677415</v>
+        <v>0.1852074401950932</v>
       </c>
       <c r="J29">
-        <v>0.1988416784677415</v>
+        <v>0.1852074401950932</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>69.7244122616562</v>
+        <v>70.50497433333334</v>
       </c>
       <c r="N29">
-        <v>69.7244122616562</v>
+        <v>211.514923</v>
       </c>
       <c r="O29">
-        <v>0.2041696962751367</v>
+        <v>0.1911989120506307</v>
       </c>
       <c r="P29">
-        <v>0.2041696962751367</v>
+        <v>0.1911989120506307</v>
       </c>
       <c r="Q29">
-        <v>19192.72834969616</v>
+        <v>19491.14870887565</v>
       </c>
       <c r="R29">
-        <v>19192.72834969616</v>
+        <v>175420.3383798809</v>
       </c>
       <c r="S29">
-        <v>0.04059744509959717</v>
+        <v>0.03541146106898408</v>
       </c>
       <c r="T29">
-        <v>0.04059744509959717</v>
+        <v>0.03541146106898407</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>275.265545124586</v>
+        <v>276.4506886666666</v>
       </c>
       <c r="H30">
-        <v>275.265545124586</v>
+        <v>829.3520659999999</v>
       </c>
       <c r="I30">
-        <v>0.1988416784677415</v>
+        <v>0.1852074401950932</v>
       </c>
       <c r="J30">
-        <v>0.1988416784677415</v>
+        <v>0.1852074401950932</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>44.5518968542285</v>
+        <v>44.93685299999999</v>
       </c>
       <c r="N30">
-        <v>44.5518968542285</v>
+        <v>134.810559</v>
       </c>
       <c r="O30">
-        <v>0.1304585718854647</v>
+        <v>0.1218620031539683</v>
       </c>
       <c r="P30">
-        <v>0.1304585718854647</v>
+        <v>0.1218620031539683</v>
       </c>
       <c r="Q30">
-        <v>12263.60217391354</v>
+        <v>12422.82395836276</v>
       </c>
       <c r="R30">
-        <v>12263.60217391354</v>
+        <v>111805.4156252649</v>
       </c>
       <c r="S30">
-        <v>0.02594060140421031</v>
+        <v>0.02256974966119284</v>
       </c>
       <c r="T30">
-        <v>0.02594060140421031</v>
+        <v>0.02256974966119284</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>275.265545124586</v>
+        <v>276.4506886666666</v>
       </c>
       <c r="H31">
-        <v>275.265545124586</v>
+        <v>829.3520659999999</v>
       </c>
       <c r="I31">
-        <v>0.1988416784677415</v>
+        <v>0.1852074401950932</v>
       </c>
       <c r="J31">
-        <v>0.1988416784677415</v>
+        <v>0.1852074401950932</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>29.4476381146581</v>
+        <v>32.18692066666667</v>
       </c>
       <c r="N31">
-        <v>29.4476381146581</v>
+        <v>96.56076200000001</v>
       </c>
       <c r="O31">
-        <v>0.08622970255134382</v>
+        <v>0.08728609962513087</v>
       </c>
       <c r="P31">
-        <v>0.08622970255134382</v>
+        <v>0.08728609962513086</v>
       </c>
       <c r="Q31">
-        <v>8105.920158262899</v>
+        <v>8898.096384359365</v>
       </c>
       <c r="R31">
-        <v>8105.920158262899</v>
+        <v>80082.86745923429</v>
       </c>
       <c r="S31">
-        <v>0.0171460587890833</v>
+        <v>0.01616603507618438</v>
       </c>
       <c r="T31">
-        <v>0.0171460587890833</v>
+        <v>0.01616603507618437</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>17.977302228058</v>
+        <v>20.809199</v>
       </c>
       <c r="H32">
-        <v>17.977302228058</v>
+        <v>62.427597</v>
       </c>
       <c r="I32">
-        <v>0.01298614015688389</v>
+        <v>0.01394107027871187</v>
       </c>
       <c r="J32">
-        <v>0.01298614015688389</v>
+        <v>0.01394107027871187</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>106.451472632882</v>
+        <v>127.9386926666667</v>
       </c>
       <c r="N32">
-        <v>106.451472632882</v>
+        <v>383.816078</v>
       </c>
       <c r="O32">
-        <v>0.3117152820727166</v>
+        <v>0.3469505389988016</v>
       </c>
       <c r="P32">
-        <v>0.3117152820727166</v>
+        <v>0.3469505389988015</v>
       </c>
       <c r="Q32">
-        <v>1913.710296143165</v>
+        <v>2662.301715500507</v>
       </c>
       <c r="R32">
-        <v>1913.710296143165</v>
+        <v>23960.71543950457</v>
       </c>
       <c r="S32">
-        <v>0.004047978342038895</v>
+        <v>0.004836861847419255</v>
       </c>
       <c r="T32">
-        <v>0.004047978342038895</v>
+        <v>0.004836861847419254</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>17.977302228058</v>
+        <v>20.809199</v>
       </c>
       <c r="H33">
-        <v>17.977302228058</v>
+        <v>62.427597</v>
       </c>
       <c r="I33">
-        <v>0.01298614015688389</v>
+        <v>0.01394107027871187</v>
       </c>
       <c r="J33">
-        <v>0.01298614015688389</v>
+        <v>0.01394107027871187</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>37.902203136864</v>
+        <v>37.93280166666667</v>
       </c>
       <c r="N33">
-        <v>37.902203136864</v>
+        <v>113.798405</v>
       </c>
       <c r="O33">
-        <v>0.110986683882995</v>
+        <v>0.1028680668034806</v>
       </c>
       <c r="P33">
-        <v>0.110986683882995</v>
+        <v>0.1028680668034806</v>
       </c>
       <c r="Q33">
-        <v>681.3793609006522</v>
+        <v>789.3512185091984</v>
       </c>
       <c r="R33">
-        <v>681.3793609006522</v>
+        <v>7104.160966582785</v>
       </c>
       <c r="S33">
-        <v>0.00144128863245234</v>
+        <v>0.00143409094874255</v>
       </c>
       <c r="T33">
-        <v>0.00144128863245234</v>
+        <v>0.00143409094874255</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>17.977302228058</v>
+        <v>20.809199</v>
       </c>
       <c r="H34">
-        <v>17.977302228058</v>
+        <v>62.427597</v>
       </c>
       <c r="I34">
-        <v>0.01298614015688389</v>
+        <v>0.01394107027871187</v>
       </c>
       <c r="J34">
-        <v>0.01298614015688389</v>
+        <v>0.01394107027871187</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>53.4246348455395</v>
+        <v>55.25172166666667</v>
       </c>
       <c r="N34">
-        <v>53.4246348455395</v>
+        <v>165.755165</v>
       </c>
       <c r="O34">
-        <v>0.1564400633323429</v>
+        <v>0.149834379367988</v>
       </c>
       <c r="P34">
-        <v>0.1564400633323429</v>
+        <v>0.149834379367988</v>
       </c>
       <c r="Q34">
-        <v>960.4308070419024</v>
+        <v>1149.744071254278</v>
       </c>
       <c r="R34">
-        <v>960.4308070419024</v>
+        <v>10347.6966412885</v>
       </c>
       <c r="S34">
-        <v>0.002031552588585598</v>
+        <v>0.002088851612936297</v>
       </c>
       <c r="T34">
-        <v>0.002031552588585598</v>
+        <v>0.002088851612936296</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>17.977302228058</v>
+        <v>20.809199</v>
       </c>
       <c r="H35">
-        <v>17.977302228058</v>
+        <v>62.427597</v>
       </c>
       <c r="I35">
-        <v>0.01298614015688389</v>
+        <v>0.01394107027871187</v>
       </c>
       <c r="J35">
-        <v>0.01298614015688389</v>
+        <v>0.01394107027871187</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>69.7244122616562</v>
+        <v>70.50497433333334</v>
       </c>
       <c r="N35">
-        <v>69.7244122616562</v>
+        <v>211.514923</v>
       </c>
       <c r="O35">
-        <v>0.2041696962751367</v>
+        <v>0.1911989120506307</v>
       </c>
       <c r="P35">
-        <v>0.2041696962751367</v>
+        <v>0.1911989120506307</v>
       </c>
       <c r="Q35">
-        <v>1253.456831901507</v>
+        <v>1467.152041392226</v>
       </c>
       <c r="R35">
-        <v>1253.456831901507</v>
+        <v>13204.36837253003</v>
       </c>
       <c r="S35">
-        <v>0.002651376291617341</v>
+        <v>0.002665517470111092</v>
       </c>
       <c r="T35">
-        <v>0.002651376291617341</v>
+        <v>0.002665517470111092</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>17.977302228058</v>
+        <v>20.809199</v>
       </c>
       <c r="H36">
-        <v>17.977302228058</v>
+        <v>62.427597</v>
       </c>
       <c r="I36">
-        <v>0.01298614015688389</v>
+        <v>0.01394107027871187</v>
       </c>
       <c r="J36">
-        <v>0.01298614015688389</v>
+        <v>0.01394107027871187</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>44.5518968542285</v>
+        <v>44.93685299999999</v>
       </c>
       <c r="N36">
-        <v>44.5518968542285</v>
+        <v>134.810559</v>
       </c>
       <c r="O36">
-        <v>0.1304585718854647</v>
+        <v>0.1218620031539683</v>
       </c>
       <c r="P36">
-        <v>0.1304585718854647</v>
+        <v>0.1218620031539683</v>
       </c>
       <c r="Q36">
-        <v>800.9229145817322</v>
+        <v>935.0999165107468</v>
       </c>
       <c r="R36">
-        <v>800.9229145817322</v>
+        <v>8415.899248596721</v>
       </c>
       <c r="S36">
-        <v>0.001694153299171557</v>
+        <v>0.001698886750274079</v>
       </c>
       <c r="T36">
-        <v>0.001694153299171557</v>
+        <v>0.001698886750274079</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>17.977302228058</v>
+        <v>20.809199</v>
       </c>
       <c r="H37">
-        <v>17.977302228058</v>
+        <v>62.427597</v>
       </c>
       <c r="I37">
-        <v>0.01298614015688389</v>
+        <v>0.01394107027871187</v>
       </c>
       <c r="J37">
-        <v>0.01298614015688389</v>
+        <v>0.01394107027871187</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>29.4476381146581</v>
+        <v>32.18692066666667</v>
       </c>
       <c r="N37">
-        <v>29.4476381146581</v>
+        <v>96.56076200000001</v>
       </c>
       <c r="O37">
-        <v>0.08622970255134382</v>
+        <v>0.08728609962513087</v>
       </c>
       <c r="P37">
-        <v>0.08622970255134382</v>
+        <v>0.08728609962513086</v>
       </c>
       <c r="Q37">
-        <v>529.3890902896887</v>
+        <v>669.7840373498794</v>
       </c>
       <c r="R37">
-        <v>529.3890902896887</v>
+        <v>6028.056336148915</v>
       </c>
       <c r="S37">
-        <v>0.001119791003018159</v>
+        <v>0.001216861649228595</v>
       </c>
       <c r="T37">
-        <v>0.001119791003018159</v>
+        <v>0.001216861649228595</v>
       </c>
     </row>
   </sheetData>
